--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931149.5946297331</v>
+        <v>926279.4173449969</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15529481.89034889</v>
+        <v>15529481.89034888</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8296541.918375793</v>
+        <v>8296541.918375792</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7041116.352870807</v>
+        <v>7041116.352870808</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>159.9775604581078</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.1697823965149</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -1466,7 +1466,7 @@
         <v>117.7848734220132</v>
       </c>
       <c r="H12" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>11.90382589688436</v>
@@ -1505,16 +1505,16 @@
         <v>170.8836040586646</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8918312087472</v>
+        <v>44.67166200929422</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>26.26677679359056</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.52756169566299</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14.74201764725691</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>185.0912503946672</v>
@@ -1596,7 +1596,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>172.2266780424406</v>
       </c>
       <c r="W14" t="n">
-        <v>159.9775604581076</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>77.97418691797822</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -1706,7 +1706,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I15" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>138.5167475680967</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.9920610079057</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H16" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T16" t="n">
-        <v>229.5134335018853</v>
+        <v>153.2121112360755</v>
       </c>
       <c r="U16" t="n">
         <v>282.5352749748386</v>
@@ -1827,10 +1827,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>196.2419059683852</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>226.9671127660106</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.8771402970696</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>111.755352779823</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.8836040586646</v>
@@ -2004,25 +2004,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>16.78302604233883</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T19" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>176.8210809749131</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>193.184228428269</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>407.0231810178811</v>
@@ -2101,7 +2101,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I20" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>64.61369421403363</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>67.20104398213822</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>81.25900202202037</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>170.8836040586646</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2241,25 +2241,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.050549103512973</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H22" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>155.2976156264658</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2304,10 +2304,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>253.2737759841417</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>226.2353786589602</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2496,7 +2496,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I25" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.0912503946672</v>
+        <v>35.54120459481147</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U25" t="n">
         <v>282.5352749748386</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9977380437566853</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>146.469254552394</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>314.4437866110031</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2718,10 +2718,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>185.5015416658738</v>
       </c>
       <c r="U28" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V28" t="n">
-        <v>62.51278607464101</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>69.38929987582698</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I29" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T29" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>120.9269808239301</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>44.52756169566353</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>21.63236214784951</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>185.0912503946672</v>
@@ -3012,13 +3012,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.5410905054797</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3037,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.0231810178811</v>
+        <v>124.7108276602477</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H34" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U34" t="n">
-        <v>89.81597291912709</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>30.30095838488243</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -3255,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>103.2061010913722</v>
+        <v>197.3482197986405</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>31.82800446804111</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>206.0213254759822</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7521532045854</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>172.4015054655235</v>
       </c>
       <c r="T37" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5352749748386</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>282.676370974827</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0345665146277</v>
+        <v>115.1505345243631</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,19 +3590,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>68.64996136051063</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>24.16217981485556</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U39" t="n">
         <v>207.8918312087472</v>
@@ -3647,7 +3647,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0.2886841038326531</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -3672,13 +3672,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>97.04398255227417</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I40" t="n">
         <v>104.6770998313136</v>
@@ -3711,22 +3711,22 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S40" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>196.9417377057047</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>313.778439641659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7848734220132</v>
+        <v>34.71683427996109</v>
       </c>
       <c r="H42" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I42" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>170.8836040586646</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V42" t="n">
-        <v>155.0471503829206</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>78.70489400280636</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I43" t="n">
         <v>104.6770998313136</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S43" t="n">
         <v>185.0912503946672</v>
@@ -3957,16 +3957,16 @@
         <v>282.5352749748386</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.978726996716115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>273.2165486299502</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>81.12093885316563</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4067,7 +4067,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>117.7848734220132</v>
@@ -4076,7 +4076,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I45" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T45" t="n">
-        <v>11.35018013278231</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.8918312087472</v>
@@ -4121,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>173.2010745510894</v>
       </c>
     </row>
     <row r="46">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>121.0445803969762</v>
       </c>
       <c r="G46" t="n">
         <v>165.6708174907576</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.14861132039282</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1791.491063604352</v>
+        <v>845.8997612391787</v>
       </c>
       <c r="C11" t="n">
-        <v>1629.897568192122</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="D11" t="n">
-        <v>1629.897568192122</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.314043308666</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="F11" t="n">
-        <v>810.4196048386441</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G11" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H11" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I11" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J11" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K11" t="n">
-        <v>460.4337383187916</v>
+        <v>498.171783726867</v>
       </c>
       <c r="L11" t="n">
-        <v>622.4184459954201</v>
+        <v>660.1564914034956</v>
       </c>
       <c r="M11" t="n">
-        <v>823.2427787360874</v>
+        <v>860.9808241441629</v>
       </c>
       <c r="N11" t="n">
-        <v>1030.315634582116</v>
+        <v>1068.053679990191</v>
       </c>
       <c r="O11" t="n">
-        <v>1217.180740651803</v>
+        <v>1254.918786059878</v>
       </c>
       <c r="P11" t="n">
-        <v>1354.240134846936</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1703.857538398287</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R11" t="n">
         <v>1791.491063604352</v>
@@ -5071,22 +5071,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T11" t="n">
-        <v>1791.491063604352</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U11" t="n">
-        <v>1791.491063604352</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="V11" t="n">
-        <v>1791.491063604352</v>
+        <v>1246.394506950576</v>
       </c>
       <c r="W11" t="n">
-        <v>1791.491063604352</v>
+        <v>1246.394506950576</v>
       </c>
       <c r="X11" t="n">
-        <v>1791.491063604352</v>
+        <v>1246.394506950576</v>
       </c>
       <c r="Y11" t="n">
-        <v>1791.491063604352</v>
+        <v>1246.394506950576</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>635.6124571906878</v>
+        <v>708.4500022771996</v>
       </c>
       <c r="C12" t="n">
-        <v>635.6124571906878</v>
+        <v>557.7957718372918</v>
       </c>
       <c r="D12" t="n">
-        <v>505.5234898121681</v>
+        <v>427.7068044587722</v>
       </c>
       <c r="E12" t="n">
-        <v>369.0769989230558</v>
+        <v>291.2603135696599</v>
       </c>
       <c r="F12" t="n">
-        <v>244.6451928061876</v>
+        <v>166.8285074527917</v>
       </c>
       <c r="G12" t="n">
-        <v>125.6705731879924</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="H12" t="n">
-        <v>47.85388783459651</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I12" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J12" t="n">
-        <v>54.69695449549361</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K12" t="n">
-        <v>137.7445263582622</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L12" t="n">
-        <v>581.1385646003394</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M12" t="n">
-        <v>759.1680217916402</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N12" t="n">
-        <v>951.2750081668473</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O12" t="n">
-        <v>1394.669046408924</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P12" t="n">
-        <v>1703.20578058454</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q12" t="n">
         <v>1748.895481510255</v>
@@ -5147,25 +5147,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S12" t="n">
-        <v>1676.717469147193</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T12" t="n">
         <v>1504.107768077834</v>
       </c>
       <c r="U12" t="n">
-        <v>1294.11601938213</v>
+        <v>1458.984877159355</v>
       </c>
       <c r="V12" t="n">
-        <v>1071.576017753197</v>
+        <v>1458.984877159355</v>
       </c>
       <c r="W12" t="n">
-        <v>841.4587718864841</v>
+        <v>1228.867631292642</v>
       </c>
       <c r="X12" t="n">
-        <v>814.9266741151805</v>
+        <v>1039.560553642654</v>
       </c>
       <c r="Y12" t="n">
-        <v>635.6124571906878</v>
+        <v>860.2463367181609</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.925866122519</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="C13" t="n">
-        <v>50.72074818850817</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="D13" t="n">
-        <v>50.72074818850817</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="E13" t="n">
-        <v>50.72074818850817</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F13" t="n">
-        <v>50.72074818850817</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G13" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H13" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I13" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J13" t="n">
         <v>69.09848475894705</v>
@@ -5223,28 +5223,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R13" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S13" t="n">
-        <v>1521.53685324079</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T13" t="n">
-        <v>1289.705102228785</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U13" t="n">
-        <v>1004.315935587534</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="V13" t="n">
-        <v>738.3365904083582</v>
+        <v>821.3299417874072</v>
       </c>
       <c r="W13" t="n">
-        <v>455.0061883395359</v>
+        <v>537.9995397185849</v>
       </c>
       <c r="X13" t="n">
-        <v>220.925866122519</v>
+        <v>303.9192175015679</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.925866122519</v>
+        <v>80.80715631821127</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1629.897568192122</v>
+        <v>1217.029976435944</v>
       </c>
       <c r="C14" t="n">
-        <v>1629.897568192122</v>
+        <v>823.8544749388748</v>
       </c>
       <c r="D14" t="n">
-        <v>1629.897568192122</v>
+        <v>438.4133461555425</v>
       </c>
       <c r="E14" t="n">
-        <v>1227.314043308666</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F14" t="n">
-        <v>810.4196048386441</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G14" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H14" t="n">
-        <v>95.97363073958837</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I14" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J14" t="n">
-        <v>349.1973608293694</v>
+        <v>299.3018810313798</v>
       </c>
       <c r="K14" t="n">
-        <v>498.171783726867</v>
+        <v>410.5382585208021</v>
       </c>
       <c r="L14" t="n">
-        <v>660.1564914034956</v>
+        <v>572.5229661974307</v>
       </c>
       <c r="M14" t="n">
-        <v>860.9808241441629</v>
+        <v>773.347298938098</v>
       </c>
       <c r="N14" t="n">
-        <v>1068.053679990191</v>
+        <v>980.4201547841265</v>
       </c>
       <c r="O14" t="n">
-        <v>1254.918786059878</v>
+        <v>1167.285260853813</v>
       </c>
       <c r="P14" t="n">
-        <v>1391.978180255011</v>
+        <v>1304.344655048947</v>
       </c>
       <c r="Q14" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R14" t="n">
         <v>1791.491063604352</v>
@@ -5314,16 +5314,16 @@
         <v>1791.491063604352</v>
       </c>
       <c r="V14" t="n">
-        <v>1791.491063604352</v>
+        <v>1617.524722147341</v>
       </c>
       <c r="W14" t="n">
-        <v>1629.897568192122</v>
+        <v>1617.524722147341</v>
       </c>
       <c r="X14" t="n">
-        <v>1629.897568192122</v>
+        <v>1617.524722147341</v>
       </c>
       <c r="Y14" t="n">
-        <v>1629.897568192122</v>
+        <v>1617.524722147341</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>786.2666876305956</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="C15" t="n">
-        <v>635.6124571906878</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="D15" t="n">
-        <v>505.5234898121681</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="E15" t="n">
-        <v>369.0769989230558</v>
+        <v>357.0529323605463</v>
       </c>
       <c r="F15" t="n">
-        <v>244.6451928061876</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="G15" t="n">
-        <v>125.6705731879924</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H15" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I15" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J15" t="n">
-        <v>249.431949475221</v>
+        <v>54.69695449549361</v>
       </c>
       <c r="K15" t="n">
-        <v>332.4795213379896</v>
+        <v>498.0909927375707</v>
       </c>
       <c r="L15" t="n">
-        <v>474.2568821652546</v>
+        <v>728.3778042679671</v>
       </c>
       <c r="M15" t="n">
-        <v>917.6509204073317</v>
+        <v>906.4072614592679</v>
       </c>
       <c r="N15" t="n">
-        <v>1361.044958649409</v>
+        <v>1098.514247834475</v>
       </c>
       <c r="O15" t="n">
-        <v>1522.342453157396</v>
+        <v>1259.811742342462</v>
       </c>
       <c r="P15" t="n">
-        <v>1745.801362678636</v>
+        <v>1703.20578058454</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R15" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S15" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.801562512751</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U15" t="n">
-        <v>1536.801562512751</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V15" t="n">
-        <v>1536.801562512751</v>
+        <v>1186.349612210357</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.684316646038</v>
+        <v>956.2323663436434</v>
       </c>
       <c r="X15" t="n">
-        <v>1117.37723899605</v>
+        <v>766.9252886936551</v>
       </c>
       <c r="Y15" t="n">
-        <v>938.0630220715569</v>
+        <v>587.6110717691624</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>338.8525913618531</v>
+        <v>479.1136435718263</v>
       </c>
       <c r="C16" t="n">
-        <v>338.8525913618531</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="D16" t="n">
-        <v>183.2194782643679</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="E16" t="n">
-        <v>183.2194782643679</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="F16" t="n">
-        <v>183.2194782643679</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="G16" t="n">
-        <v>183.2194782643679</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H16" t="n">
-        <v>35.82982127208704</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I16" t="n">
         <v>35.82982127208704</v>
@@ -5439,10 +5439,10 @@
         <v>69.09848475894705</v>
       </c>
       <c r="K16" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L16" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393998</v>
       </c>
       <c r="M16" t="n">
         <v>877.2968956781577</v>
@@ -5460,28 +5460,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R16" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S16" t="n">
-        <v>1521.53685324079</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T16" t="n">
-        <v>1289.705102228785</v>
+        <v>1449.770496300571</v>
       </c>
       <c r="U16" t="n">
-        <v>1004.315935587534</v>
+        <v>1164.38132965932</v>
       </c>
       <c r="V16" t="n">
-        <v>738.336590408358</v>
+        <v>898.4019844801445</v>
       </c>
       <c r="W16" t="n">
-        <v>455.0061883395356</v>
+        <v>898.4019844801445</v>
       </c>
       <c r="X16" t="n">
-        <v>455.0061883395356</v>
+        <v>664.3216622631276</v>
       </c>
       <c r="Y16" t="n">
-        <v>455.0061883395356</v>
+        <v>664.3216622631276</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1227.314043308666</v>
+        <v>234.0539687149003</v>
       </c>
       <c r="C17" t="n">
-        <v>1227.314043308666</v>
+        <v>234.0539687149003</v>
       </c>
       <c r="D17" t="n">
-        <v>1227.314043308666</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="E17" t="n">
-        <v>1227.314043308666</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F17" t="n">
-        <v>810.4196048386441</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G17" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H17" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I17" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J17" t="n">
-        <v>88.04454835761867</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K17" t="n">
-        <v>199.2809258470409</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L17" t="n">
-        <v>361.2656335236695</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M17" t="n">
-        <v>562.0899662643368</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N17" t="n">
-        <v>769.1628221103653</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O17" t="n">
-        <v>956.027928180052</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P17" t="n">
-        <v>1391.978180255011</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q17" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R17" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S17" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T17" t="n">
-        <v>1456.573753173324</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U17" t="n">
-        <v>1456.573753173324</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="V17" t="n">
-        <v>1227.314043308666</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="W17" t="n">
-        <v>1227.314043308666</v>
+        <v>1420.492028572639</v>
       </c>
       <c r="X17" t="n">
-        <v>1227.314043308666</v>
+        <v>1031.039423505696</v>
       </c>
       <c r="Y17" t="n">
-        <v>1227.314043308666</v>
+        <v>634.5487144262972</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>409.3252143856701</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="C18" t="n">
-        <v>409.3252143856701</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="D18" t="n">
-        <v>279.2362470071504</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="E18" t="n">
-        <v>279.2362470071504</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F18" t="n">
-        <v>154.8044408902822</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J18" t="n">
-        <v>249.431949475221</v>
+        <v>54.69695449549361</v>
       </c>
       <c r="K18" t="n">
-        <v>332.4795213379896</v>
+        <v>498.0909927375707</v>
       </c>
       <c r="L18" t="n">
-        <v>775.8735595800667</v>
+        <v>639.8683535648357</v>
       </c>
       <c r="M18" t="n">
-        <v>953.9030167713676</v>
+        <v>817.8978107561366</v>
       </c>
       <c r="N18" t="n">
-        <v>1146.010003146575</v>
+        <v>1010.004797131344</v>
       </c>
       <c r="O18" t="n">
-        <v>1307.307497654562</v>
+        <v>1171.302291639331</v>
       </c>
       <c r="P18" t="n">
-        <v>1745.801362678637</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q18" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R18" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S18" t="n">
-        <v>1676.717469147193</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T18" t="n">
-        <v>1504.107768077834</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U18" t="n">
-        <v>1294.11601938213</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V18" t="n">
-        <v>1071.576017753197</v>
+        <v>1186.349612210357</v>
       </c>
       <c r="W18" t="n">
-        <v>841.4587718864841</v>
+        <v>956.2323663436434</v>
       </c>
       <c r="X18" t="n">
-        <v>652.1516942364958</v>
+        <v>766.9252886936551</v>
       </c>
       <c r="Y18" t="n">
-        <v>472.837477312003</v>
+        <v>587.6110717691624</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>363.9742980682878</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="C19" t="n">
-        <v>347.0217465103698</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="D19" t="n">
-        <v>191.3886334128845</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="E19" t="n">
-        <v>35.82982127208705</v>
+        <v>466.2344604248426</v>
       </c>
       <c r="F19" t="n">
-        <v>35.82982127208705</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="G19" t="n">
-        <v>35.82982127208705</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H19" t="n">
-        <v>35.82982127208705</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I19" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J19" t="n">
         <v>69.09848475894705</v>
@@ -5697,28 +5697,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R19" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S19" t="n">
-        <v>1521.53685324079</v>
+        <v>1604.53020461984</v>
       </c>
       <c r="T19" t="n">
-        <v>1289.705102228785</v>
+        <v>1604.53020461984</v>
       </c>
       <c r="U19" t="n">
-        <v>1289.705102228785</v>
+        <v>1319.141037978588</v>
       </c>
       <c r="V19" t="n">
-        <v>1289.705102228785</v>
+        <v>1053.161692799413</v>
       </c>
       <c r="W19" t="n">
-        <v>1006.374700159963</v>
+        <v>874.5545402995006</v>
       </c>
       <c r="X19" t="n">
-        <v>772.2943779429457</v>
+        <v>874.5545402995006</v>
       </c>
       <c r="Y19" t="n">
-        <v>549.1823167595891</v>
+        <v>651.4424791161439</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1390.996317892955</v>
+        <v>1135.716924154475</v>
       </c>
       <c r="C20" t="n">
-        <v>1390.996317892955</v>
+        <v>1135.716924154475</v>
       </c>
       <c r="D20" t="n">
-        <v>1005.555189109623</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="E20" t="n">
-        <v>1005.555189109623</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="F20" t="n">
-        <v>810.4196048386441</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="G20" t="n">
-        <v>399.2850785579561</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H20" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208707</v>
       </c>
       <c r="I20" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208707</v>
       </c>
       <c r="J20" t="n">
-        <v>130.4064740650544</v>
+        <v>299.3018810313812</v>
       </c>
       <c r="K20" t="n">
-        <v>241.6428515544766</v>
+        <v>410.5382585208035</v>
       </c>
       <c r="L20" t="n">
-        <v>403.6275592311052</v>
+        <v>572.5229661974321</v>
       </c>
       <c r="M20" t="n">
-        <v>604.4518919717725</v>
+        <v>773.3472989380994</v>
       </c>
       <c r="N20" t="n">
-        <v>811.524747817801</v>
+        <v>980.4201547841278</v>
       </c>
       <c r="O20" t="n">
-        <v>1254.918786059878</v>
+        <v>1167.285260853815</v>
       </c>
       <c r="P20" t="n">
-        <v>1391.978180255011</v>
+        <v>1304.344655048948</v>
       </c>
       <c r="Q20" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398289</v>
       </c>
       <c r="R20" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604353</v>
       </c>
       <c r="S20" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153854</v>
       </c>
       <c r="T20" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173325</v>
       </c>
       <c r="U20" t="n">
-        <v>1791.491063604352</v>
+        <v>1200.983281946428</v>
       </c>
       <c r="V20" t="n">
-        <v>1791.491063604352</v>
+        <v>1200.983281946428</v>
       </c>
       <c r="W20" t="n">
-        <v>1791.491063604352</v>
+        <v>1200.983281946428</v>
       </c>
       <c r="X20" t="n">
-        <v>1791.491063604352</v>
+        <v>1135.716924154475</v>
       </c>
       <c r="Y20" t="n">
-        <v>1791.491063604352</v>
+        <v>1135.716924154475</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>786.2666876305956</v>
+        <v>587.6110717691638</v>
       </c>
       <c r="C21" t="n">
-        <v>635.6124571906878</v>
+        <v>436.956841329256</v>
       </c>
       <c r="D21" t="n">
-        <v>505.5234898121681</v>
+        <v>436.956841329256</v>
       </c>
       <c r="E21" t="n">
         <v>369.0769989230558</v>
@@ -5825,10 +5825,10 @@
         <v>125.6705731879924</v>
       </c>
       <c r="H21" t="n">
-        <v>47.85388783459651</v>
+        <v>47.85388783459653</v>
       </c>
       <c r="I21" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208707</v>
       </c>
       <c r="J21" t="n">
         <v>249.431949475221</v>
@@ -5840,43 +5840,43 @@
         <v>474.2568821652546</v>
       </c>
       <c r="M21" t="n">
-        <v>652.2863393565553</v>
+        <v>652.2863393565555</v>
       </c>
       <c r="N21" t="n">
-        <v>1095.680377598633</v>
+        <v>844.3933257317626</v>
       </c>
       <c r="O21" t="n">
-        <v>1539.07441584071</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P21" t="n">
-        <v>1655.963382363547</v>
+        <v>1378.762417405296</v>
       </c>
       <c r="Q21" t="n">
-        <v>1748.895481510255</v>
+        <v>1748.895481510256</v>
       </c>
       <c r="R21" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604353</v>
       </c>
       <c r="S21" t="n">
-        <v>1709.411263582109</v>
+        <v>1791.491063604353</v>
       </c>
       <c r="T21" t="n">
-        <v>1536.801562512751</v>
+        <v>1618.881362534995</v>
       </c>
       <c r="U21" t="n">
-        <v>1536.801562512751</v>
+        <v>1408.889613839291</v>
       </c>
       <c r="V21" t="n">
-        <v>1536.801562512751</v>
+        <v>1186.349612210358</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.684316646038</v>
+        <v>956.2323663436448</v>
       </c>
       <c r="X21" t="n">
-        <v>1117.37723899605</v>
+        <v>766.9252886936565</v>
       </c>
       <c r="Y21" t="n">
-        <v>938.0630220715569</v>
+        <v>587.6110717691638</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>614.7178526132303</v>
+        <v>367.9491632526739</v>
       </c>
       <c r="C22" t="n">
-        <v>444.5127346792195</v>
+        <v>367.9491632526739</v>
       </c>
       <c r="D22" t="n">
-        <v>444.5127346792195</v>
+        <v>212.3160501551886</v>
       </c>
       <c r="E22" t="n">
-        <v>288.953922538422</v>
+        <v>212.3160501551886</v>
       </c>
       <c r="F22" t="n">
-        <v>288.953922538422</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="G22" t="n">
-        <v>288.953922538422</v>
+        <v>35.82982127208707</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208707</v>
       </c>
       <c r="I22" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208707</v>
       </c>
       <c r="J22" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894708</v>
       </c>
       <c r="K22" t="n">
         <v>254.5315649273076</v>
@@ -5940,22 +5940,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T22" t="n">
-        <v>1634.624785193781</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U22" t="n">
-        <v>1349.23561855253</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="V22" t="n">
-        <v>1083.256273373354</v>
+        <v>1293.679967413171</v>
       </c>
       <c r="W22" t="n">
-        <v>799.9258713045316</v>
+        <v>1010.349565344349</v>
       </c>
       <c r="X22" t="n">
-        <v>799.9258713045316</v>
+        <v>776.2692431273318</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.9258713045316</v>
+        <v>553.1571819439752</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1079.772947378811</v>
+        <v>962.5973812504312</v>
       </c>
       <c r="C23" t="n">
-        <v>686.5974458817418</v>
+        <v>962.5973812504312</v>
       </c>
       <c r="D23" t="n">
-        <v>301.1563170984095</v>
+        <v>577.156252467099</v>
       </c>
       <c r="E23" t="n">
-        <v>45.32422014473101</v>
+        <v>577.156252467099</v>
       </c>
       <c r="F23" t="n">
-        <v>45.32422014473101</v>
+        <v>577.156252467099</v>
       </c>
       <c r="G23" t="n">
-        <v>45.32422014473101</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H23" t="n">
         <v>45.32422014473101</v>
@@ -5989,25 +5989,25 @@
         <v>45.32422014473101</v>
       </c>
       <c r="J23" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K23" t="n">
-        <v>485.32098706178</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L23" t="n">
-        <v>647.3056947384086</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M23" t="n">
-        <v>848.1300274790759</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N23" t="n">
-        <v>1409.017251770122</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O23" t="n">
-        <v>1969.904476061168</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P23" t="n">
-        <v>2106.963870256302</v>
+        <v>1779.064598681145</v>
       </c>
       <c r="Q23" t="n">
         <v>2178.577482030485</v>
@@ -6016,25 +6016,25 @@
         <v>2266.21100723655</v>
       </c>
       <c r="S23" t="n">
-        <v>2266.21100723655</v>
+        <v>2145.915725786051</v>
       </c>
       <c r="T23" t="n">
-        <v>2266.21100723655</v>
+        <v>1931.293696805522</v>
       </c>
       <c r="U23" t="n">
-        <v>2266.21100723655</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V23" t="n">
-        <v>2266.21100723655</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W23" t="n">
-        <v>2266.21100723655</v>
+        <v>962.5973812504312</v>
       </c>
       <c r="X23" t="n">
-        <v>1876.758402169607</v>
+        <v>962.5973812504312</v>
       </c>
       <c r="Y23" t="n">
-        <v>1480.267693090208</v>
+        <v>962.5973812504312</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>45.32422014473101</v>
       </c>
       <c r="J24" t="n">
-        <v>64.19135336813758</v>
+        <v>258.9263483478649</v>
       </c>
       <c r="K24" t="n">
-        <v>147.2389252309062</v>
+        <v>341.9739202106335</v>
       </c>
       <c r="L24" t="n">
-        <v>708.1261495219525</v>
+        <v>761.1611986719511</v>
       </c>
       <c r="M24" t="n">
-        <v>1269.013373812999</v>
+        <v>939.1906558632519</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.900598104045</v>
+        <v>1131.297642238459</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.198092612032</v>
+        <v>1292.595136746446</v>
       </c>
       <c r="P24" t="n">
-        <v>2108.087059134869</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q24" t="n">
-        <v>2266.21100723655</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R24" t="n">
         <v>2266.21100723655</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1104.515559462061</v>
+        <v>828.5759972539959</v>
       </c>
       <c r="C25" t="n">
-        <v>934.3104415280502</v>
+        <v>828.5759972539959</v>
       </c>
       <c r="D25" t="n">
-        <v>778.677328430565</v>
+        <v>672.9428841565107</v>
       </c>
       <c r="E25" t="n">
-        <v>623.1185162897675</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="F25" t="n">
-        <v>465.7925815027404</v>
+        <v>360.0581372286862</v>
       </c>
       <c r="G25" t="n">
-        <v>298.448321411066</v>
+        <v>192.7138771370119</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I25" t="n">
         <v>45.32422014473101</v>
@@ -6174,25 +6174,25 @@
         <v>1800.985462476996</v>
       </c>
       <c r="S25" t="n">
-        <v>1614.024603492484</v>
+        <v>1765.08525581557</v>
       </c>
       <c r="T25" t="n">
-        <v>1614.024603492484</v>
+        <v>1533.253504803565</v>
       </c>
       <c r="U25" t="n">
-        <v>1328.635436851232</v>
+        <v>1247.864338162314</v>
       </c>
       <c r="V25" t="n">
-        <v>1328.635436851232</v>
+        <v>1247.864338162314</v>
       </c>
       <c r="W25" t="n">
-        <v>1328.635436851232</v>
+        <v>1247.864338162314</v>
       </c>
       <c r="X25" t="n">
-        <v>1327.627620645418</v>
+        <v>1013.784015945297</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.515559462061</v>
+        <v>1013.784015945297</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>438.4997216418004</v>
+        <v>741.8111694601682</v>
       </c>
       <c r="C26" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="D26" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="E26" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="F26" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="G26" t="n">
-        <v>45.32422014473102</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H26" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I26" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J26" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K26" t="n">
-        <v>208.7753247196849</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L26" t="n">
-        <v>760.854316814335</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M26" t="n">
-        <v>961.6786495550023</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N26" t="n">
-        <v>1168.751505401031</v>
+        <v>1072.822946880274</v>
       </c>
       <c r="O26" t="n">
-        <v>1729.638729692077</v>
+        <v>1633.71017117132</v>
       </c>
       <c r="P26" t="n">
-        <v>1866.69812388721</v>
+        <v>2194.597395462366</v>
       </c>
       <c r="Q26" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="R26" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S26" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786051</v>
       </c>
       <c r="T26" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805522</v>
       </c>
       <c r="U26" t="n">
-        <v>2266.211007236551</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V26" t="n">
-        <v>1924.104197940069</v>
+        <v>1527.75448360651</v>
       </c>
       <c r="W26" t="n">
-        <v>1553.105162908357</v>
+        <v>1527.75448360651</v>
       </c>
       <c r="X26" t="n">
-        <v>1235.485176432596</v>
+        <v>1138.301878539567</v>
       </c>
       <c r="Y26" t="n">
-        <v>838.9944673531973</v>
+        <v>741.8111694601682</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C27" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D27" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E27" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F27" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G27" t="n">
-        <v>135.164972060637</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H27" t="n">
-        <v>57.34828670724073</v>
+        <v>57.34828670724047</v>
       </c>
       <c r="I27" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J27" t="n">
-        <v>64.19135336813758</v>
+        <v>258.9263483478649</v>
       </c>
       <c r="K27" t="n">
-        <v>555.6790372731327</v>
+        <v>750.41403225286</v>
       </c>
       <c r="L27" t="n">
-        <v>697.4563981003978</v>
+        <v>1205.15945644016</v>
       </c>
       <c r="M27" t="n">
-        <v>981.786237957349</v>
+        <v>1383.188913631461</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.893224332556</v>
+        <v>1575.295900006668</v>
       </c>
       <c r="O27" t="n">
-        <v>1335.190718840544</v>
+        <v>1736.593394514656</v>
       </c>
       <c r="P27" t="n">
-        <v>1896.07794313159</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q27" t="n">
-        <v>2266.211007236551</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R27" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S27" t="n">
         <v>2151.437412779391</v>
@@ -6338,19 +6338,19 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U27" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V27" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W27" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X27" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y27" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>526.7212633170245</v>
+        <v>215.5293380787418</v>
       </c>
       <c r="C28" t="n">
-        <v>356.5161453830137</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="D28" t="n">
-        <v>200.8830322855285</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="E28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="F28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="G28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="H28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J28" t="n">
-        <v>78.59288363159104</v>
+        <v>78.59288363159102</v>
       </c>
       <c r="K28" t="n">
         <v>264.0259637999516</v>
@@ -6411,25 +6411,25 @@
         <v>1800.985462476996</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.985462476996</v>
+        <v>1614.024603492484</v>
       </c>
       <c r="T28" t="n">
-        <v>1800.985462476996</v>
+        <v>1426.64930888049</v>
       </c>
       <c r="U28" t="n">
-        <v>1515.596295835745</v>
+        <v>1141.260142239239</v>
       </c>
       <c r="V28" t="n">
-        <v>1452.452067477522</v>
+        <v>1141.260142239239</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.121665408699</v>
+        <v>857.9297401704167</v>
       </c>
       <c r="X28" t="n">
-        <v>935.0413431916825</v>
+        <v>623.8494179533998</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.9292820083258</v>
+        <v>400.7373567700431</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1709.482168959541</v>
+        <v>1553.554760099909</v>
       </c>
       <c r="C29" t="n">
-        <v>1709.482168959541</v>
+        <v>1553.554760099909</v>
       </c>
       <c r="D29" t="n">
-        <v>1639.391967064766</v>
+        <v>1168.113631316576</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.80844218131</v>
+        <v>765.530106433121</v>
       </c>
       <c r="F29" t="n">
-        <v>819.914003711288</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="G29" t="n">
-        <v>408.7794774306001</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H29" t="n">
-        <v>105.4680296122324</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I29" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J29" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K29" t="n">
-        <v>461.4303720570881</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L29" t="n">
-        <v>623.4150797337167</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M29" t="n">
-        <v>824.2394124743839</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N29" t="n">
-        <v>1031.312268320412</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O29" t="n">
-        <v>1218.177374390099</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P29" t="n">
         <v>1779.064598681146</v>
@@ -6490,25 +6490,25 @@
         <v>2266.211007236551</v>
       </c>
       <c r="S29" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T29" t="n">
-        <v>2051.588978256022</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U29" t="n">
-        <v>2051.588978256022</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V29" t="n">
-        <v>1709.482168959541</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.482168959541</v>
+        <v>1553.554760099909</v>
       </c>
       <c r="X29" t="n">
-        <v>1709.482168959541</v>
+        <v>1553.554760099909</v>
       </c>
       <c r="Y29" t="n">
-        <v>1709.482168959541</v>
+        <v>1553.554760099909</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C30" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D30" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E30" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F30" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G30" t="n">
-        <v>135.164972060637</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H30" t="n">
-        <v>57.34828670724073</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I30" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J30" t="n">
-        <v>64.19135336813758</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K30" t="n">
-        <v>147.2389252309062</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L30" t="n">
-        <v>436.7894887412625</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M30" t="n">
-        <v>614.8189459325633</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N30" t="n">
-        <v>1175.70617022361</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O30" t="n">
-        <v>1736.593394514656</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P30" t="n">
         <v>1853.482361037493</v>
@@ -6575,19 +6575,19 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U30" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V30" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W30" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X30" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y30" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>328.5426483726841</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="C31" t="n">
-        <v>328.5426483726841</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="D31" t="n">
-        <v>172.9095352751988</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="E31" t="n">
-        <v>172.9095352751988</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="F31" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G31" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H31" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I31" t="n">
         <v>45.32422014473102</v>
@@ -6645,28 +6645,28 @@
         <v>1800.985462476996</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.992111097947</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S31" t="n">
-        <v>1531.031252113434</v>
+        <v>1614.024603492484</v>
       </c>
       <c r="T31" t="n">
-        <v>1299.199501101429</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U31" t="n">
-        <v>1013.810334460178</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="V31" t="n">
-        <v>747.8309892810023</v>
+        <v>830.8243406600517</v>
       </c>
       <c r="W31" t="n">
-        <v>747.8309892810023</v>
+        <v>547.4939385912294</v>
       </c>
       <c r="X31" t="n">
-        <v>513.7506670639854</v>
+        <v>313.4136163742124</v>
       </c>
       <c r="Y31" t="n">
-        <v>513.7506670639854</v>
+        <v>90.30155519085579</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2054.553340059299</v>
+        <v>1010.055192882783</v>
       </c>
       <c r="C32" t="n">
-        <v>1661.377838562229</v>
+        <v>616.8796913857138</v>
       </c>
       <c r="D32" t="n">
-        <v>1275.936709778897</v>
+        <v>231.4385626023816</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3531848954412</v>
+        <v>231.4385626023816</v>
       </c>
       <c r="F32" t="n">
-        <v>456.458746425419</v>
+        <v>231.4385626023816</v>
       </c>
       <c r="G32" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="H32" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I32" t="n">
         <v>45.32422014473102</v>
@@ -6703,22 +6703,22 @@
         <v>358.6917597020133</v>
       </c>
       <c r="K32" t="n">
-        <v>469.9281371914356</v>
+        <v>919.5789839930596</v>
       </c>
       <c r="L32" t="n">
-        <v>631.9128448680642</v>
+        <v>1081.563691669688</v>
       </c>
       <c r="M32" t="n">
-        <v>832.7371776087315</v>
+        <v>1282.388024410356</v>
       </c>
       <c r="N32" t="n">
-        <v>1039.81003345476</v>
+        <v>1489.460880256384</v>
       </c>
       <c r="O32" t="n">
-        <v>1226.675139524447</v>
+        <v>1969.904476061169</v>
       </c>
       <c r="P32" t="n">
-        <v>1787.562363815493</v>
+        <v>2106.963870256302</v>
       </c>
       <c r="Q32" t="n">
         <v>2178.577482030486</v>
@@ -6730,22 +6730,22 @@
         <v>2266.211007236551</v>
       </c>
       <c r="T32" t="n">
-        <v>2266.211007236551</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="U32" t="n">
-        <v>2266.211007236551</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="V32" t="n">
-        <v>2266.211007236551</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="W32" t="n">
-        <v>2266.211007236551</v>
+        <v>1795.998507029125</v>
       </c>
       <c r="X32" t="n">
-        <v>2266.211007236551</v>
+        <v>1406.545901962182</v>
       </c>
       <c r="Y32" t="n">
-        <v>2266.211007236551</v>
+        <v>1010.055192882783</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C33" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D33" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E33" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F33" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G33" t="n">
-        <v>135.164972060637</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H33" t="n">
-        <v>57.34828670724073</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I33" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J33" t="n">
-        <v>64.19135336813758</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K33" t="n">
-        <v>147.2389252309062</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L33" t="n">
-        <v>289.0162860581712</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M33" t="n">
-        <v>614.8189459325633</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N33" t="n">
-        <v>1175.70617022361</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O33" t="n">
-        <v>1736.593394514656</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P33" t="n">
         <v>1853.482361037493</v>
@@ -6812,19 +6812,19 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U33" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V33" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W33" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X33" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y33" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.5521081685079</v>
+        <v>465.7925815027404</v>
       </c>
       <c r="C34" t="n">
-        <v>348.3469902344971</v>
+        <v>465.7925815027404</v>
       </c>
       <c r="D34" t="n">
-        <v>192.7138771370119</v>
+        <v>465.7925815027404</v>
       </c>
       <c r="E34" t="n">
-        <v>192.7138771370119</v>
+        <v>465.7925815027404</v>
       </c>
       <c r="F34" t="n">
-        <v>192.7138771370119</v>
+        <v>465.7925815027404</v>
       </c>
       <c r="G34" t="n">
-        <v>192.7138771370119</v>
+        <v>298.448321411066</v>
       </c>
       <c r="H34" t="n">
-        <v>45.32422014473102</v>
+        <v>151.0586644187852</v>
       </c>
       <c r="I34" t="n">
         <v>45.32422014473102</v>
@@ -6882,28 +6882,28 @@
         <v>1800.985462476996</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.985462476996</v>
+        <v>1717.992111097947</v>
       </c>
       <c r="S34" t="n">
-        <v>1800.985462476996</v>
+        <v>1531.031252113434</v>
       </c>
       <c r="T34" t="n">
-        <v>1800.985462476996</v>
+        <v>1299.199501101429</v>
       </c>
       <c r="U34" t="n">
-        <v>1710.262257508181</v>
+        <v>1013.810334460178</v>
       </c>
       <c r="V34" t="n">
-        <v>1444.282912329005</v>
+        <v>983.2033057885797</v>
       </c>
       <c r="W34" t="n">
-        <v>1160.952510260183</v>
+        <v>699.8729037197573</v>
       </c>
       <c r="X34" t="n">
-        <v>926.8721880431658</v>
+        <v>465.7925815027404</v>
       </c>
       <c r="Y34" t="n">
-        <v>703.7601268598091</v>
+        <v>465.7925815027404</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1321.278563396926</v>
+        <v>1048.889508596473</v>
       </c>
       <c r="C35" t="n">
-        <v>928.1030618998568</v>
+        <v>1048.889508596473</v>
       </c>
       <c r="D35" t="n">
-        <v>542.6619331165246</v>
+        <v>1048.889508596473</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0784082330691</v>
+        <v>646.3059837130179</v>
       </c>
       <c r="F35" t="n">
-        <v>35.82982127208704</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G35" t="n">
         <v>35.82982127208704</v>
@@ -6943,22 +6943,22 @@
         <v>460.4337383187916</v>
       </c>
       <c r="L35" t="n">
-        <v>660.1564914034956</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M35" t="n">
-        <v>860.9808241441629</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N35" t="n">
-        <v>1068.053679990191</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O35" t="n">
-        <v>1254.918786059878</v>
+        <v>1473.709672824193</v>
       </c>
       <c r="P35" t="n">
-        <v>1391.978180255011</v>
+        <v>1610.769067019326</v>
       </c>
       <c r="Q35" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R35" t="n">
         <v>1791.491063604352</v>
@@ -6967,22 +6967,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T35" t="n">
-        <v>1576.869034623823</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U35" t="n">
-        <v>1321.278563396926</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="V35" t="n">
-        <v>1321.278563396926</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="W35" t="n">
-        <v>1321.278563396926</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="X35" t="n">
-        <v>1321.278563396926</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="Y35" t="n">
-        <v>1321.278563396926</v>
+        <v>1449.38425430787</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>786.2666876305956</v>
+        <v>322.9305426011071</v>
       </c>
       <c r="C36" t="n">
-        <v>635.6124571906878</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="D36" t="n">
-        <v>505.5234898121681</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="E36" t="n">
-        <v>369.0769989230558</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F36" t="n">
-        <v>244.6451928061876</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G36" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H36" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I36" t="n">
         <v>35.82982127208704</v>
@@ -7019,49 +7019,49 @@
         <v>249.431949475221</v>
       </c>
       <c r="K36" t="n">
-        <v>692.8259877172981</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L36" t="n">
-        <v>834.603348544563</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M36" t="n">
-        <v>1012.632805735864</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N36" t="n">
-        <v>1204.739792111071</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O36" t="n">
-        <v>1628.9123961558</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P36" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q36" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R36" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S36" t="n">
-        <v>1759.341564141684</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T36" t="n">
-        <v>1759.341564141684</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U36" t="n">
-        <v>1759.341564141684</v>
+        <v>1296.005419112196</v>
       </c>
       <c r="V36" t="n">
-        <v>1536.801562512751</v>
+        <v>1073.465417483263</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.684316646038</v>
+        <v>843.3481716165495</v>
       </c>
       <c r="X36" t="n">
-        <v>1117.37723899605</v>
+        <v>654.0410939665612</v>
       </c>
       <c r="Y36" t="n">
-        <v>938.0630220715569</v>
+        <v>474.7268770420685</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>490.8800764860804</v>
+        <v>363.3608739931249</v>
       </c>
       <c r="C37" t="n">
-        <v>490.8800764860804</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="D37" t="n">
-        <v>335.2469633885951</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="E37" t="n">
-        <v>335.2469633885951</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="F37" t="n">
-        <v>335.2469633885951</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9027032969208</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H37" t="n">
         <v>35.82982127208704</v>
@@ -7122,25 +7122,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S37" t="n">
-        <v>1791.491063604352</v>
+        <v>1617.348128790692</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.659312592347</v>
+        <v>1617.348128790692</v>
       </c>
       <c r="U37" t="n">
-        <v>1274.270145951095</v>
+        <v>1331.958962149441</v>
       </c>
       <c r="V37" t="n">
-        <v>1008.29080077192</v>
+        <v>1065.979616970265</v>
       </c>
       <c r="W37" t="n">
-        <v>724.9603987030973</v>
+        <v>782.6492149014431</v>
       </c>
       <c r="X37" t="n">
-        <v>490.8800764860804</v>
+        <v>548.5688926844261</v>
       </c>
       <c r="Y37" t="n">
-        <v>490.8800764860804</v>
+        <v>548.5688926844261</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>915.4515940930662</v>
+        <v>1285.724787300678</v>
       </c>
       <c r="C38" t="n">
-        <v>915.4515940930662</v>
+        <v>892.5492858036087</v>
       </c>
       <c r="D38" t="n">
-        <v>915.4515940930662</v>
+        <v>507.1081570202763</v>
       </c>
       <c r="E38" t="n">
-        <v>512.8680692096107</v>
+        <v>507.1081570202763</v>
       </c>
       <c r="F38" t="n">
-        <v>95.97363073958837</v>
+        <v>507.1081570202763</v>
       </c>
       <c r="G38" t="n">
         <v>95.97363073958837</v>
@@ -7174,25 +7174,25 @@
         <v>35.82982127208704</v>
       </c>
       <c r="J38" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K38" t="n">
-        <v>199.2809258470409</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L38" t="n">
-        <v>361.2656335236695</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M38" t="n">
-        <v>804.6596717657467</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N38" t="n">
-        <v>1011.732527611775</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O38" t="n">
-        <v>1198.597633681462</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P38" t="n">
-        <v>1335.657027876595</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q38" t="n">
         <v>1703.857538398287</v>
@@ -7201,25 +7201,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S38" t="n">
-        <v>1671.195782153852</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T38" t="n">
-        <v>1456.573753173323</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U38" t="n">
-        <v>1200.983281946427</v>
+        <v>1675.177392367621</v>
       </c>
       <c r="V38" t="n">
-        <v>1200.983281946427</v>
+        <v>1675.177392367621</v>
       </c>
       <c r="W38" t="n">
-        <v>1200.983281946427</v>
+        <v>1675.177392367621</v>
       </c>
       <c r="X38" t="n">
-        <v>1200.983281946427</v>
+        <v>1285.724787300678</v>
       </c>
       <c r="Y38" t="n">
-        <v>1200.983281946427</v>
+        <v>1285.724787300678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>584.0181961603314</v>
+        <v>510.3482205210298</v>
       </c>
       <c r="C39" t="n">
-        <v>433.3639657204236</v>
+        <v>359.693990081122</v>
       </c>
       <c r="D39" t="n">
-        <v>303.2749983419039</v>
+        <v>229.6050227026024</v>
       </c>
       <c r="E39" t="n">
-        <v>166.8285074527917</v>
+        <v>160.2616273889552</v>
       </c>
       <c r="F39" t="n">
-        <v>166.8285074527917</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G39" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H39" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I39" t="n">
         <v>35.82982127208704</v>
@@ -7256,10 +7256,10 @@
         <v>249.431949475221</v>
       </c>
       <c r="K39" t="n">
-        <v>332.4795213379896</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L39" t="n">
-        <v>474.2568821652546</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M39" t="n">
         <v>908.4689699992629</v>
@@ -7280,25 +7280,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S39" t="n">
-        <v>1767.084821367124</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T39" t="n">
-        <v>1767.084821367124</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U39" t="n">
-        <v>1557.09307267142</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V39" t="n">
-        <v>1334.553071042487</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W39" t="n">
-        <v>1104.435825175774</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="X39" t="n">
-        <v>915.1287475257855</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="Y39" t="n">
-        <v>735.8145306012927</v>
+        <v>662.1445549619912</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>720.9855335187117</v>
+        <v>925.1076427602876</v>
       </c>
       <c r="C40" t="n">
-        <v>550.7804155847009</v>
+        <v>924.8160426554061</v>
       </c>
       <c r="D40" t="n">
-        <v>395.1473024872157</v>
+        <v>769.1829295579209</v>
       </c>
       <c r="E40" t="n">
-        <v>239.5884903464182</v>
+        <v>613.6241174171234</v>
       </c>
       <c r="F40" t="n">
-        <v>141.5642655461412</v>
+        <v>456.2981826300963</v>
       </c>
       <c r="G40" t="n">
-        <v>141.5642655461412</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H40" t="n">
         <v>141.5642655461412</v>
@@ -7338,10 +7338,10 @@
         <v>254.5315649273076</v>
       </c>
       <c r="L40" t="n">
-        <v>551.2290272394</v>
+        <v>551.2290272393998</v>
       </c>
       <c r="M40" t="n">
-        <v>877.296895678158</v>
+        <v>877.2968956781577</v>
       </c>
       <c r="N40" t="n">
         <v>1196.939252046641</v>
@@ -7359,25 +7359,25 @@
         <v>1708.497712225303</v>
       </c>
       <c r="S40" t="n">
-        <v>1521.53685324079</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="T40" t="n">
-        <v>1289.705102228785</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="U40" t="n">
-        <v>1004.315935587534</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="V40" t="n">
-        <v>1004.315935587534</v>
+        <v>1442.518367046127</v>
       </c>
       <c r="W40" t="n">
-        <v>720.9855335187117</v>
+        <v>1159.187964977305</v>
       </c>
       <c r="X40" t="n">
-        <v>720.9855335187117</v>
+        <v>925.1076427602876</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.9855335187117</v>
+        <v>925.1076427602876</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>429.0053227691565</v>
+        <v>816.1795170279784</v>
       </c>
       <c r="C41" t="n">
-        <v>35.82982127208704</v>
+        <v>816.1795170279784</v>
       </c>
       <c r="D41" t="n">
-        <v>35.82982127208704</v>
+        <v>816.1795170279784</v>
       </c>
       <c r="E41" t="n">
-        <v>35.82982127208704</v>
+        <v>816.1795170279784</v>
       </c>
       <c r="F41" t="n">
-        <v>35.82982127208704</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="G41" t="n">
-        <v>35.82982127208704</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="H41" t="n">
-        <v>35.82982127208704</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="I41" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J41" t="n">
-        <v>299.3018810313798</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K41" t="n">
-        <v>410.5382585208021</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L41" t="n">
-        <v>572.5229661974307</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M41" t="n">
-        <v>773.347298938098</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N41" t="n">
-        <v>980.4201547841265</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O41" t="n">
-        <v>1167.285260853813</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P41" t="n">
-        <v>1304.344655048947</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1703.857538398287</v>
+        <v>1753.753018196277</v>
       </c>
       <c r="R41" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S41" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T41" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U41" t="n">
-        <v>1535.900592377455</v>
+        <v>1415.605310926956</v>
       </c>
       <c r="V41" t="n">
-        <v>1535.900592377455</v>
+        <v>1216.674262739375</v>
       </c>
       <c r="W41" t="n">
-        <v>1535.900592377455</v>
+        <v>1216.674262739375</v>
       </c>
       <c r="X41" t="n">
-        <v>1146.447987310512</v>
+        <v>1216.674262739375</v>
       </c>
       <c r="Y41" t="n">
-        <v>829.5000684805534</v>
+        <v>1216.674262739375</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>786.2666876305956</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="C42" t="n">
-        <v>635.6124571906878</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="D42" t="n">
-        <v>505.5234898121681</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="E42" t="n">
-        <v>369.0769989230558</v>
+        <v>148.714015999181</v>
       </c>
       <c r="F42" t="n">
-        <v>244.6451928061876</v>
+        <v>148.714015999181</v>
       </c>
       <c r="G42" t="n">
-        <v>125.6705731879924</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H42" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I42" t="n">
         <v>35.82982127208704</v>
@@ -7493,49 +7493,49 @@
         <v>249.431949475221</v>
       </c>
       <c r="K42" t="n">
-        <v>439.0494643363928</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L42" t="n">
-        <v>580.8268251636578</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.220863405735</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N42" t="n">
-        <v>1467.614901647812</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O42" t="n">
-        <v>1628.9123961558</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P42" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R42" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S42" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T42" t="n">
-        <v>1504.107768077834</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U42" t="n">
-        <v>1504.107768077834</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V42" t="n">
-        <v>1347.494484862763</v>
+        <v>1186.349612210357</v>
       </c>
       <c r="W42" t="n">
-        <v>1117.37723899605</v>
+        <v>956.2323663436434</v>
       </c>
       <c r="X42" t="n">
-        <v>1117.37723899605</v>
+        <v>766.9252886936551</v>
       </c>
       <c r="Y42" t="n">
-        <v>938.0630220715569</v>
+        <v>587.6110717691624</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>298.8902003331683</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="C43" t="n">
-        <v>298.8902003331683</v>
+        <v>924.8160426554061</v>
       </c>
       <c r="D43" t="n">
-        <v>298.8902003331683</v>
+        <v>769.1829295579209</v>
       </c>
       <c r="E43" t="n">
-        <v>298.8902003331683</v>
+        <v>613.6241174171234</v>
       </c>
       <c r="F43" t="n">
-        <v>141.5642655461412</v>
+        <v>456.2981826300963</v>
       </c>
       <c r="G43" t="n">
-        <v>141.5642655461412</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H43" t="n">
         <v>141.5642655461412</v>
@@ -7575,10 +7575,10 @@
         <v>254.5315649273076</v>
       </c>
       <c r="L43" t="n">
-        <v>551.2290272394</v>
+        <v>551.2290272393998</v>
       </c>
       <c r="M43" t="n">
-        <v>877.296895678158</v>
+        <v>877.2968956781577</v>
       </c>
       <c r="N43" t="n">
         <v>1196.939252046641</v>
@@ -7593,28 +7593,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R43" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S43" t="n">
-        <v>1604.53020461984</v>
+        <v>1521.53685324079</v>
       </c>
       <c r="T43" t="n">
-        <v>1372.698453607834</v>
+        <v>1289.705102228785</v>
       </c>
       <c r="U43" t="n">
-        <v>1087.309286966583</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="V43" t="n">
-        <v>821.3299417874076</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="W43" t="n">
-        <v>537.9995397185853</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="X43" t="n">
-        <v>303.9192175015684</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="Y43" t="n">
-        <v>298.8902003331683</v>
+        <v>1004.315935587534</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.2709500554193</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="C44" t="n">
-        <v>421.2709500554193</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="D44" t="n">
-        <v>35.82982127208704</v>
+        <v>1191.427905840491</v>
       </c>
       <c r="E44" t="n">
-        <v>35.82982127208704</v>
+        <v>788.8443809570351</v>
       </c>
       <c r="F44" t="n">
-        <v>35.82982127208704</v>
+        <v>371.9499424870129</v>
       </c>
       <c r="G44" t="n">
-        <v>35.82982127208704</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="H44" t="n">
-        <v>35.82982127208704</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="I44" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J44" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K44" t="n">
-        <v>199.2809258470409</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L44" t="n">
-        <v>361.2656335236695</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M44" t="n">
-        <v>804.6596717657467</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N44" t="n">
-        <v>1011.732527611775</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O44" t="n">
-        <v>1455.126565853852</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P44" t="n">
-        <v>1592.185960048986</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1703.857538398287</v>
+        <v>1753.753018196277</v>
       </c>
       <c r="R44" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S44" t="n">
-        <v>1671.195782153852</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T44" t="n">
-        <v>1671.195782153852</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U44" t="n">
-        <v>1671.195782153852</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="V44" t="n">
-        <v>1589.255439877928</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="W44" t="n">
-        <v>1218.256404846215</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="X44" t="n">
-        <v>1218.256404846215</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="Y44" t="n">
-        <v>821.7656957668162</v>
+        <v>1576.869034623823</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>786.2666876305956</v>
+        <v>649.8108149512179</v>
       </c>
       <c r="C45" t="n">
-        <v>635.6124571906878</v>
+        <v>499.1565845113101</v>
       </c>
       <c r="D45" t="n">
-        <v>505.5234898121681</v>
+        <v>369.0676171327904</v>
       </c>
       <c r="E45" t="n">
-        <v>369.0769989230558</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="F45" t="n">
-        <v>244.6451928061876</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="G45" t="n">
-        <v>125.6705731879924</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H45" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I45" t="n">
         <v>35.82982127208704</v>
@@ -7730,22 +7730,22 @@
         <v>249.431949475221</v>
       </c>
       <c r="K45" t="n">
-        <v>332.4795213379896</v>
+        <v>586.6004434407021</v>
       </c>
       <c r="L45" t="n">
-        <v>474.2568821652546</v>
+        <v>728.3778042679671</v>
       </c>
       <c r="M45" t="n">
-        <v>657.1819181323929</v>
+        <v>906.4072614592679</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.57595637447</v>
+        <v>1098.514247834475</v>
       </c>
       <c r="O45" t="n">
-        <v>1261.873450882457</v>
+        <v>1259.811742342462</v>
       </c>
       <c r="P45" t="n">
-        <v>1378.762417405294</v>
+        <v>1703.20578058454</v>
       </c>
       <c r="Q45" t="n">
         <v>1748.895481510255</v>
@@ -7754,25 +7754,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S45" t="n">
-        <v>1791.491063604352</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T45" t="n">
-        <v>1780.0262351874</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="U45" t="n">
-        <v>1570.034486491696</v>
+        <v>1466.725720451488</v>
       </c>
       <c r="V45" t="n">
-        <v>1347.494484862763</v>
+        <v>1244.185718822555</v>
       </c>
       <c r="W45" t="n">
-        <v>1117.37723899605</v>
+        <v>1014.068472955842</v>
       </c>
       <c r="X45" t="n">
-        <v>1117.37723899605</v>
+        <v>824.7613953058537</v>
       </c>
       <c r="Y45" t="n">
-        <v>938.0630220715569</v>
+        <v>649.8108149512179</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>464.467337778613</v>
+        <v>651.279565321496</v>
       </c>
       <c r="C46" t="n">
-        <v>464.467337778613</v>
+        <v>481.0744473874852</v>
       </c>
       <c r="D46" t="n">
-        <v>464.467337778613</v>
+        <v>325.4413342899999</v>
       </c>
       <c r="E46" t="n">
-        <v>308.9085256378155</v>
+        <v>325.4413342899999</v>
       </c>
       <c r="F46" t="n">
-        <v>308.9085256378155</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="G46" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I46" t="n">
         <v>35.82982127208704</v>
@@ -7833,25 +7833,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S46" t="n">
-        <v>1765.078324896884</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T46" t="n">
-        <v>1533.246573884879</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U46" t="n">
-        <v>1247.857407243628</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="V46" t="n">
-        <v>981.8780620644523</v>
+        <v>1293.679967413171</v>
       </c>
       <c r="W46" t="n">
-        <v>698.5476599956299</v>
+        <v>1293.679967413171</v>
       </c>
       <c r="X46" t="n">
-        <v>464.467337778613</v>
+        <v>1059.599645196154</v>
       </c>
       <c r="Y46" t="n">
-        <v>464.467337778613</v>
+        <v>836.4875840127972</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>38.1192377859347</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>280.8119108860278</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>13.99890267249438</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6633105200123</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>284.9460037718079</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>193.5836036896752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8865,7 +8865,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>210.6102387699039</v>
       </c>
       <c r="Q13" t="n">
         <v>101.9350150692923</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>213.3912451250113</v>
       </c>
       <c r="K14" t="n">
-        <v>38.1192377859347</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>89.40348555871856</v>
       </c>
       <c r="M15" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>107.6464070690946</v>
+        <v>329.8031027467073</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>301.9099574543698</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>280.8119108860276</v>
       </c>
       <c r="R17" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L18" t="n">
-        <v>304.6633105200123</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>324.8534328295329</v>
+        <v>91.48601943750131</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>42.78982394690475</v>
+        <v>213.3912451250126</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1201335074651</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>253.8253049160303</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>284.9460037718079</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>258.7703339825341</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.71959416261934</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>279.3390528708031</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>357.3882509545634</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>377.8001194155146</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>419.5253181429948</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>423.3432964280618</v>
+        <v>280.2120380141945</v>
       </c>
       <c r="M24" t="n">
-        <v>386.7250172724701</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>372.5052908240798</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>448.483088654757</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.5699466423898</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>394.0346307252743</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>33.34637719748915</v>
       </c>
       <c r="O26" t="n">
-        <v>377.8001194155147</v>
+        <v>377.8001194155146</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>428.1089192888008</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>13.99890267249438</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>316.1293569293281</v>
       </c>
       <c r="M27" t="n">
-        <v>107.3741239046974</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>448.4830886547571</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>255.2071185226294</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>428.108919288801</v>
+        <v>419.5253181429953</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>149.2658612960518</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>372.5052908240799</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>403.6259896798575</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>316.1293569293287</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10351,7 +10351,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>454.192774547095</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>296.5439290253513</v>
       </c>
       <c r="P32" t="n">
-        <v>428.108919288801</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>322.6277842836455</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>149.2658612960518</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>372.5052908240799</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>403.6259896798575</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>316.1293569293287</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>38.11923778593473</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>259.120133507465</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>21.69177737856265</v>
       </c>
       <c r="R35" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>363.9863296760691</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>265.5304136734759</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>245.0199045468786</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.582726007584</v>
+        <v>280.8119108860276</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,13 +10904,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>258.7703339825328</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>213.3912451250113</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>52.11814045842905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,16 +11141,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>107.6464070690941</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>268.0450313644204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>245.0199045468786</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>259.120133507465</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.46259250011906</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>52.11814045842905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>256.68780010375</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>4.945029066502485</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>329.8031027467073</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>229.2661860239909</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>11.51595880700188</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>163.2201691994529</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>161.1472300798979</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>138.8283768087253</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23430,7 +23430,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9287998435007</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H13" t="n">
         <v>145.915760422358</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>166.4590631610762</v>
       </c>
       <c r="W14" t="n">
-        <v>207.3114842232878</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>57.10783906224293</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T15" t="n">
-        <v>32.36685649056781</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.36387749648257</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23667,13 +23667,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I16" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>76.3013222658098</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>185.3448115271138</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U17" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V17" t="n">
-        <v>111.7186284375061</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.40123079948212</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>17.03272492491142</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H18" t="n">
         <v>77.03851849986194</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>151.7200407123318</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I19" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.6760170732211</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23980,7 +23980,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>219.541265657053</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>320.9443848022401</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>67.88098199808293</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>32.36685649056763</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>146.7021263356438</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>185.0912503946672</v>
       </c>
       <c r="T22" t="n">
-        <v>74.21581787541942</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>145.2839136504791</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>407.0231810178811</v>
+        <v>180.7878023589209</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>59.54237137282632</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>149.5500457998558</v>
       </c>
       <c r="T25" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>230.74178095109</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>407.0231810178811</v>
       </c>
       <c r="H26" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>59.54237137282632</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>192.2164866511228</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>71.11429240527065</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24651,16 +24651,16 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S28" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.5134335018853</v>
+        <v>44.0118918360115</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>200.806765652743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>312.197417619672</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>246.3620638574653</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.8283768087247</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>134.1203132913073</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>165.6708174907576</v>
@@ -24858,7 +24858,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186.9487077488032</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>282.3123533576334</v>
       </c>
       <c r="H32" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I32" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T32" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24982,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,13 +25089,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>192.7193020557115</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>233.0185933425016</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>309.5193929939498</v>
+        <v>215.3772742866815</v>
       </c>
       <c r="G35" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>300.2783333401841</v>
@@ -25207,13 +25207,13 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>81.79785404454688</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8918312087472</v>
+        <v>1.87050573276494</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H37" t="n">
-        <v>15.16360721777261</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I37" t="n">
         <v>104.6770998313136</v>
@@ -25362,10 +25362,10 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S37" t="n">
-        <v>185.0912503946672</v>
+        <v>12.68974492914379</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>113.8134272794559</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>300.2783333401841</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>137.8840319902646</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25478,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>66.43206461971052</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H39" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>89.46367869773243</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.214382650838</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>58.7086928868826</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25639,16 +25639,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H41" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.4758086907236</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>141.7440034978121</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.74736234694592</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.06803914205213</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>65.26745122972304</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>89.79817275186431</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>215.902213574807</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0231810178811</v>
+        <v>133.8066323879308</v>
       </c>
       <c r="H44" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I44" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T44" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V44" t="n">
-        <v>257.5648023503512</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>159.5334239258822</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>4.32000020415839</v>
       </c>
     </row>
     <row r="46">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>34.7080950421806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S46" t="n">
-        <v>158.9426390742744</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>507066.139814798</v>
+        <v>507066.1398147981</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>507066.1398147979</v>
+        <v>507066.1398147978</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>507066.139814798</v>
+        <v>507066.1398147981</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507066.139814798</v>
+        <v>507066.1398147983</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>586074.3226527856</v>
+        <v>586074.3226527858</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>507066.1398147981</v>
+        <v>507066.139814798</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>467737.9754182643</v>
       </c>
       <c r="D2" t="n">
-        <v>467737.9754182643</v>
+        <v>467737.9754182644</v>
       </c>
       <c r="E2" t="n">
         <v>277212.189436555</v>
@@ -26334,25 +26334,25 @@
         <v>277212.1894365554</v>
       </c>
       <c r="I2" t="n">
-        <v>313735.6512789934</v>
+        <v>313735.6512789936</v>
       </c>
       <c r="J2" t="n">
-        <v>313735.6512789935</v>
+        <v>313735.6512789936</v>
       </c>
       <c r="K2" t="n">
         <v>313735.6512789936</v>
       </c>
       <c r="L2" t="n">
-        <v>313735.6512789933</v>
+        <v>313735.6512789935</v>
       </c>
       <c r="M2" t="n">
-        <v>277212.1894365551</v>
+        <v>277212.1894365553</v>
       </c>
       <c r="N2" t="n">
-        <v>277212.1894365553</v>
+        <v>277212.189436555</v>
       </c>
       <c r="O2" t="n">
-        <v>277212.1894365554</v>
+        <v>277212.189436555</v>
       </c>
       <c r="P2" t="n">
         <v>277212.1894365551</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31559.50053265444</v>
+        <v>31559.50053265437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>82036.15754538514</v>
+        <v>82036.15754538513</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="C4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="D4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="E4" t="n">
-        <v>38326.19277740487</v>
+        <v>38326.19277740485</v>
       </c>
       <c r="F4" t="n">
-        <v>38326.19277740486</v>
+        <v>38326.19277740485</v>
       </c>
       <c r="G4" t="n">
-        <v>38326.19277740487</v>
+        <v>38326.19277740485</v>
       </c>
       <c r="H4" t="n">
-        <v>38326.19277740486</v>
+        <v>38326.1927774049</v>
       </c>
       <c r="I4" t="n">
         <v>55611.43642678939</v>
       </c>
       <c r="J4" t="n">
-        <v>55611.43642678941</v>
+        <v>55611.43642678938</v>
       </c>
       <c r="K4" t="n">
         <v>55611.4364267894</v>
@@ -26450,7 +26450,7 @@
         <v>55611.4364267894</v>
       </c>
       <c r="M4" t="n">
-        <v>38326.19277740486</v>
+        <v>38326.19277740485</v>
       </c>
       <c r="N4" t="n">
         <v>38326.19277740485</v>
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="F5" t="n">
         <v>38119.25843022532</v>
       </c>
       <c r="G5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="H5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022535</v>
       </c>
       <c r="I5" t="n">
         <v>45335.00157343474</v>
       </c>
       <c r="J5" t="n">
-        <v>45335.00157343475</v>
+        <v>45335.00157343474</v>
       </c>
       <c r="K5" t="n">
         <v>45335.00157343475</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64082.10539989185</v>
+        <v>64077.77583210537</v>
       </c>
       <c r="C6" t="n">
-        <v>64082.10539989185</v>
+        <v>64077.77583210531</v>
       </c>
       <c r="D6" t="n">
-        <v>64082.10539989179</v>
+        <v>64077.77583210543</v>
       </c>
       <c r="E6" t="n">
-        <v>-334239.3768825025</v>
+        <v>-334976.4979348339</v>
       </c>
       <c r="F6" t="n">
-        <v>200766.7382289249</v>
+        <v>200029.6171765935</v>
       </c>
       <c r="G6" t="n">
-        <v>200766.7382289251</v>
+        <v>200029.6171765937</v>
       </c>
       <c r="H6" t="n">
-        <v>200766.7382289252</v>
+        <v>200029.6171765937</v>
       </c>
       <c r="I6" t="n">
-        <v>181229.7127461148</v>
+        <v>180633.0665470238</v>
       </c>
       <c r="J6" t="n">
-        <v>212789.2132787693</v>
+        <v>212192.5670796782</v>
       </c>
       <c r="K6" t="n">
-        <v>212789.2132787695</v>
+        <v>212192.5670796782</v>
       </c>
       <c r="L6" t="n">
-        <v>212789.2132787692</v>
+        <v>212192.5670796781</v>
       </c>
       <c r="M6" t="n">
-        <v>118730.5806835398</v>
+        <v>117993.4596312085</v>
       </c>
       <c r="N6" t="n">
-        <v>200766.7382289251</v>
+        <v>200029.6171765934</v>
       </c>
       <c r="O6" t="n">
-        <v>200766.7382289252</v>
+        <v>200029.6171765934</v>
       </c>
       <c r="P6" t="n">
-        <v>200766.738228925</v>
+        <v>200029.6171765935</v>
       </c>
     </row>
   </sheetData>
@@ -26807,13 +26807,13 @@
         <v>447.872765901088</v>
       </c>
       <c r="H4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010883</v>
       </c>
       <c r="I4" t="n">
         <v>566.5527518091376</v>
       </c>
       <c r="J4" t="n">
-        <v>566.5527518091377</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="K4" t="n">
         <v>566.5527518091377</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.8727659010881</v>
+        <v>447.872765901088</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.6799859080495</v>
+        <v>118.6799859080493</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1927799930384</v>
+        <v>329.1927799930383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>447.8727659010881</v>
+        <v>447.872765901088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K11" t="n">
-        <v>112.3599772620427</v>
+        <v>150.4792150479774</v>
       </c>
       <c r="L11" t="n">
         <v>163.6209168450794</v>
@@ -35430,10 +35430,10 @@
         <v>138.4438325203367</v>
       </c>
       <c r="Q11" t="n">
-        <v>353.1488924761125</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R11" t="n">
-        <v>88.51871232935822</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K12" t="n">
-        <v>83.88643622501884</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L12" t="n">
-        <v>447.872765901088</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M12" t="n">
         <v>179.8277345366675</v>
@@ -35503,13 +35503,13 @@
         <v>194.0474609850578</v>
       </c>
       <c r="O12" t="n">
-        <v>447.872765901088</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6532668440558</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R12" t="n">
         <v>43.02584049908782</v>
@@ -35585,7 +35585,7 @@
         <v>291.6575168012933</v>
       </c>
       <c r="P13" t="n">
-        <v>230.0221076380294</v>
+        <v>230.0221076380292</v>
       </c>
       <c r="Q13" t="n">
         <v>78.87776097250642</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>316.5328682396791</v>
+        <v>266.1333936962553</v>
       </c>
       <c r="K14" t="n">
-        <v>150.4792150479774</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L14" t="n">
         <v>163.6209168450794</v>
@@ -35670,7 +35670,7 @@
         <v>403.5483670195359</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>215.7597254577111</v>
+        <v>19.0577103266733</v>
       </c>
       <c r="K15" t="n">
-        <v>83.88643622501884</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L15" t="n">
-        <v>143.2094553810758</v>
+        <v>232.6129409397943</v>
       </c>
       <c r="M15" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N15" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O15" t="n">
         <v>162.9267621292802</v>
       </c>
       <c r="P15" t="n">
-        <v>225.7160702234752</v>
+        <v>447.872765901088</v>
       </c>
       <c r="Q15" t="n">
         <v>46.15121305627828</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K17" t="n">
         <v>112.3599772620427</v>
@@ -35901,13 +35901,13 @@
         <v>188.752632393623</v>
       </c>
       <c r="P17" t="n">
-        <v>440.3537899747066</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q17" t="n">
-        <v>403.5483670195359</v>
+        <v>353.1488924761122</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>215.7597254577111</v>
+        <v>19.0577103266733</v>
       </c>
       <c r="K18" t="n">
-        <v>83.88643622501884</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L18" t="n">
-        <v>447.872765901088</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M18" t="n">
         <v>179.8277345366675</v>
@@ -35980,13 +35980,13 @@
         <v>162.9267621292802</v>
       </c>
       <c r="P18" t="n">
-        <v>442.9230959839136</v>
+        <v>209.5556825918819</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.53197251814881</v>
+        <v>266.1333936962567</v>
       </c>
       <c r="K20" t="n">
         <v>112.3599772620427</v>
@@ -36135,7 +36135,7 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O20" t="n">
-        <v>447.872765901088</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P20" t="n">
         <v>138.4438325203367</v>
@@ -36144,7 +36144,7 @@
         <v>403.5483670195359</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>179.8277345366675</v>
       </c>
       <c r="N21" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O21" t="n">
-        <v>447.872765901088</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P21" t="n">
-        <v>118.0696631543806</v>
+        <v>376.8399971369147</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.87080721889762</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R21" t="n">
         <v>43.02584049908782</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K23" t="n">
-        <v>391.6990301328458</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L23" t="n">
         <v>163.6209168450794</v>
@@ -36369,16 +36369,16 @@
         <v>202.8528613542094</v>
       </c>
       <c r="N23" t="n">
-        <v>566.5527518091376</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O23" t="n">
-        <v>566.5527518091376</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P23" t="n">
-        <v>138.4438325203367</v>
+        <v>557.9691506633316</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.3369815900846</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R23" t="n">
         <v>88.51871232935822</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K24" t="n">
         <v>83.88643622501884</v>
       </c>
       <c r="L24" t="n">
-        <v>566.5527518091376</v>
+        <v>423.4214933952703</v>
       </c>
       <c r="M24" t="n">
-        <v>566.5527518091376</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N24" t="n">
-        <v>566.5527518091376</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O24" t="n">
         <v>162.9267621292802</v>
       </c>
       <c r="P24" t="n">
-        <v>118.0696631543806</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.7211596986681</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K26" t="n">
         <v>112.3599772620427</v>
       </c>
       <c r="L26" t="n">
-        <v>557.6555475703536</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M26" t="n">
         <v>202.8528613542094</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1645008545742</v>
+        <v>242.5108780520634</v>
       </c>
       <c r="O26" t="n">
-        <v>566.5527518091377</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="P26" t="n">
-        <v>138.4438325203367</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="Q26" t="n">
-        <v>403.5483670195359</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K27" t="n">
         <v>496.4522059646415</v>
       </c>
       <c r="L27" t="n">
-        <v>143.2094553810758</v>
+        <v>459.3388123104039</v>
       </c>
       <c r="M27" t="n">
-        <v>287.2018584413649</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N27" t="n">
         <v>194.0474609850578</v>
@@ -36691,13 +36691,13 @@
         <v>162.9267621292802</v>
       </c>
       <c r="P27" t="n">
-        <v>566.5527518091377</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q27" t="n">
         <v>373.8717819242029</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K29" t="n">
-        <v>367.5670957846721</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L29" t="n">
         <v>163.6209168450794</v>
@@ -36849,7 +36849,7 @@
         <v>188.752632393623</v>
       </c>
       <c r="P29" t="n">
-        <v>566.5527518091377</v>
+        <v>557.969150663332</v>
       </c>
       <c r="Q29" t="n">
         <v>403.5483670195359</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K30" t="n">
-        <v>83.88643622501884</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L30" t="n">
-        <v>292.4753166771275</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M30" t="n">
         <v>179.8277345366675</v>
       </c>
       <c r="N30" t="n">
-        <v>566.5527518091377</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O30" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P30" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q30" t="n">
         <v>373.8717819242029</v>
@@ -37071,7 +37071,7 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K32" t="n">
-        <v>112.3599772620427</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="L32" t="n">
         <v>163.6209168450794</v>
@@ -37083,13 +37083,13 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O32" t="n">
-        <v>188.752632393623</v>
+        <v>485.2965614189743</v>
       </c>
       <c r="P32" t="n">
-        <v>566.5527518091377</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q32" t="n">
-        <v>394.9647658737301</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R32" t="n">
         <v>88.51871232935822</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K33" t="n">
-        <v>83.88643622501884</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L33" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M33" t="n">
-        <v>329.0935958327193</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N33" t="n">
-        <v>566.5527518091377</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O33" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P33" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q33" t="n">
         <v>373.8717819242029</v>
@@ -37311,7 +37311,7 @@
         <v>112.3599772620427</v>
       </c>
       <c r="L35" t="n">
-        <v>201.7401546310141</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M35" t="n">
         <v>202.8528613542094</v>
@@ -37320,16 +37320,16 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O35" t="n">
-        <v>188.752632393623</v>
+        <v>447.872765901088</v>
       </c>
       <c r="P35" t="n">
         <v>138.4438325203367</v>
       </c>
       <c r="Q35" t="n">
-        <v>403.5483670195359</v>
+        <v>94.02875896864725</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K36" t="n">
-        <v>447.872765901088</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L36" t="n">
         <v>143.2094553810758</v>
@@ -37399,16 +37399,16 @@
         <v>194.0474609850578</v>
       </c>
       <c r="O36" t="n">
-        <v>428.4571758027561</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P36" t="n">
         <v>118.0696631543806</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K38" t="n">
         <v>112.3599772620427</v>
@@ -37551,7 +37551,7 @@
         <v>163.6209168450794</v>
       </c>
       <c r="M38" t="n">
-        <v>447.872765901088</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N38" t="n">
         <v>209.1645008545742</v>
@@ -37563,7 +37563,7 @@
         <v>138.4438325203367</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.9197075976687</v>
+        <v>353.1488924761122</v>
       </c>
       <c r="R38" t="n">
         <v>88.51871232935822</v>
@@ -37624,13 +37624,13 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K39" t="n">
-        <v>83.88643622501884</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L39" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M39" t="n">
-        <v>438.5980685192003</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N39" t="n">
         <v>194.0474609850578</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>266.1333936962553</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K41" t="n">
         <v>112.3599772620427</v>
@@ -37803,7 +37803,7 @@
         <v>403.5483670195359</v>
       </c>
       <c r="R41" t="n">
-        <v>88.51871232935822</v>
+        <v>38.11923778593467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K42" t="n">
-        <v>191.5328432941129</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L42" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M42" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N42" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O42" t="n">
         <v>162.9267621292802</v>
@@ -37879,10 +37879,10 @@
         <v>118.0696631543806</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K44" t="n">
         <v>112.3599772620427</v>
@@ -38025,22 +38025,22 @@
         <v>163.6209168450794</v>
       </c>
       <c r="M44" t="n">
-        <v>447.872765901088</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N44" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O44" t="n">
-        <v>447.872765901088</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P44" t="n">
         <v>138.4438325203367</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.7995740902037</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R44" t="n">
-        <v>88.51871232935822</v>
+        <v>38.11923778593467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K45" t="n">
-        <v>83.88643622501884</v>
+        <v>340.5742363287688</v>
       </c>
       <c r="L45" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M45" t="n">
-        <v>184.77276360317</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N45" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O45" t="n">
         <v>162.9267621292802</v>
       </c>
       <c r="P45" t="n">
-        <v>118.0696631543806</v>
+        <v>447.872765901088</v>
       </c>
       <c r="Q45" t="n">
-        <v>373.8717819242029</v>
+        <v>46.15121305627828</v>
       </c>
       <c r="R45" t="n">
         <v>43.02584049908782</v>
